--- a/Chonqqing Power Grid/data-files/2016年协议库存用量统计.xlsx
+++ b/Chonqqing Power Grid/data-files/2016年协议库存用量统计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
   <si>
     <t>0.4千伏双电源切换箱</t>
   </si>
@@ -190,15 +190,6 @@
     <t>总计</t>
   </si>
   <si>
-    <t>营销项目</t>
-  </si>
-  <si>
-    <t>运维项目</t>
-  </si>
-  <si>
-    <t>基建项目</t>
-  </si>
-  <si>
     <t>配网</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>科技项目</t>
   </si>
   <si>
-    <t>信息项目</t>
-  </si>
-  <si>
     <t>行标签</t>
   </si>
   <si>
@@ -268,11 +256,39 @@
     <t>剩余电流动作保护器</t>
   </si>
   <si>
-    <t>铅封</t>
+    <t>运维及成本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>运维及成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -339,11 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -661,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -684,46 +695,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -780,41 +791,41 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>70761.600000000006</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>3870.3599999999997</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>505454.04000000004</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>1032541.3300000001</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>14295.060000000001</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7">
         <v>12899.849999999999</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>131315.28999999998</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
         <v>319438.02999999997</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="5">
         <v>78724.240000000005</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="7">
         <v>177078.86000000002</v>
       </c>
     </row>
@@ -1654,7 +1665,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2">
         <v>12565173.650000012</v>
@@ -2204,7 +2215,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2">
@@ -2238,7 +2249,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2">
         <v>5715751.1400000043</v>
@@ -2298,7 +2309,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2">
         <v>536819.83000000042</v>
@@ -2444,7 +2455,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2">
         <v>10328635.89000001</v>
@@ -2482,7 +2493,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2">
@@ -2572,7 +2583,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2">
@@ -2676,7 +2687,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2">
         <v>296560.51</v>
@@ -2704,7 +2715,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2">
         <v>121410.59</v>
@@ -2738,7 +2749,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2">
         <v>469989</v>
@@ -2772,7 +2783,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2">
         <v>672</v>
@@ -2806,7 +2817,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2">
         <v>223961.65000000002</v>
@@ -2834,23 +2845,6 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2">
         <v>278576.57999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="8">
-        <v>442705.00949999999</v>
-      </c>
-      <c r="E68" s="8">
-        <v>1416.636</v>
-      </c>
-      <c r="H68" s="8">
-        <v>224.17199999999997</v>
-      </c>
-      <c r="N68" s="8">
-        <v>5164.9650000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2861,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2888,46 +2882,46 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>54</v>
@@ -2998,45 +2992,45 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>42</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>78</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>1011</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>11</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7">
         <v>3</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>77</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
         <v>54</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="7">
         <v>6</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="7">
         <v>46</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
         <v>247</v>
       </c>
     </row>
@@ -3464,7 +3458,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2">
@@ -3838,7 +3832,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
@@ -4168,7 +4162,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2">
         <v>11</v>
@@ -4200,7 +4194,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2">
         <v>2591</v>
@@ -4238,7 +4232,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2">
         <v>2326</v>
@@ -4280,7 +4274,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2">
         <v>166</v>
@@ -4398,7 +4392,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
@@ -4538,7 +4532,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2">
         <v>2745.9300000000026</v>
@@ -4758,7 +4752,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2">
         <v>290372</v>
@@ -4902,7 +4896,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2">
         <v>544</v>
@@ -5010,7 +5004,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2">
         <v>755952</v>
@@ -5198,7 +5192,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2">
@@ -5310,25 +5304,6 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2">
         <v>145914</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="5">
-        <v>1361634</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5">
-        <v>40</v>
-      </c>
-      <c r="H68" s="8">
-        <v>20</v>
-      </c>
-      <c r="N68" s="5">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
